--- a/BackTest/2019-10-29 BackTest BHP.xlsx
+++ b/BackTest/2019-10-29 BackTest BHP.xlsx
@@ -5246,13 +5246,17 @@
         <v>1249.4</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1244</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1244</v>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
@@ -5281,14 +5285,22 @@
         <v>1249.1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1244</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1244</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +5328,22 @@
         <v>1248.8</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1246</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1244</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5351,13 +5371,17 @@
         <v>1248.6</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1248</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1248</v>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
@@ -5386,14 +5410,22 @@
         <v>1248.4</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1248</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +5453,22 @@
         <v>1248.4</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1248</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5456,13 +5496,17 @@
         <v>1248.3</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1251</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1251</v>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
@@ -5491,14 +5535,22 @@
         <v>1248.2</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1248</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1251</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5526,14 +5578,22 @@
         <v>1248.25</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1248</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1251</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5561,13 +5621,17 @@
         <v>1248.3</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1252</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1252</v>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
@@ -5602,8 +5666,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1252</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5707,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1252</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6191,17 +6267,13 @@
         <v>1243.25</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K166" t="n">
-        <v>1239</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
@@ -6230,22 +6302,14 @@
         <v>1242.6</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K167" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6273,22 +6337,14 @@
         <v>1241.95</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K168" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6316,17 +6372,13 @@
         <v>1241.15</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K169" t="n">
-        <v>1239</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
@@ -6355,22 +6407,14 @@
         <v>1240.35</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K170" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6398,22 +6442,14 @@
         <v>1239.7</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K171" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6441,17 +6477,13 @@
         <v>1239.35</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K172" t="n">
-        <v>1239</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
@@ -6480,22 +6512,14 @@
         <v>1239.5</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>1245</v>
-      </c>
-      <c r="K173" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6523,22 +6547,14 @@
         <v>1239.5</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>1242</v>
-      </c>
-      <c r="K174" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6566,17 +6582,13 @@
         <v>1239.7</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>1244</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1244</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
@@ -6605,22 +6617,14 @@
         <v>1239.65</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K176" t="n">
-        <v>1244</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6648,22 +6652,14 @@
         <v>1239.6</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K177" t="n">
-        <v>1244</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6691,17 +6687,13 @@
         <v>1239.65</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K178" t="n">
-        <v>1239</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
@@ -6730,22 +6722,14 @@
         <v>1239.7</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K179" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6773,22 +6757,14 @@
         <v>1239.7</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K180" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6816,17 +6792,13 @@
         <v>1239.7</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K181" t="n">
-        <v>1239</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
@@ -6855,22 +6827,14 @@
         <v>1239.65</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K182" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6898,22 +6862,14 @@
         <v>1239.6</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1239</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6941,17 +6897,13 @@
         <v>1239.55</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K184" t="n">
-        <v>1238</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
@@ -6980,22 +6932,14 @@
         <v>1239.6</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>1240</v>
-      </c>
-      <c r="K185" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7023,22 +6967,14 @@
         <v>1239.55</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K186" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7066,17 +7002,13 @@
         <v>1239.5</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K187" t="n">
-        <v>1238</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
@@ -7105,22 +7037,14 @@
         <v>1239.45</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K188" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7148,22 +7072,14 @@
         <v>1239.4</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K189" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7191,17 +7107,13 @@
         <v>1239.35</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K190" t="n">
-        <v>1238</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
@@ -7230,22 +7142,14 @@
         <v>1239.3</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K191" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7273,22 +7177,14 @@
         <v>1239.25</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K192" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7316,17 +7212,13 @@
         <v>1238.9</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K193" t="n">
-        <v>1238</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
@@ -7355,22 +7247,14 @@
         <v>1238.8</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>1240</v>
-      </c>
-      <c r="K194" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7398,22 +7282,14 @@
         <v>1238.5</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K195" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7441,22 +7317,14 @@
         <v>1238.45</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K196" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7484,22 +7352,14 @@
         <v>1238.4</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K197" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7527,22 +7387,14 @@
         <v>1238.35</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K198" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7570,22 +7422,14 @@
         <v>1238.3</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K199" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7613,22 +7457,14 @@
         <v>1238.3</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K200" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7656,22 +7492,14 @@
         <v>1238.25</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K201" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7699,22 +7527,14 @@
         <v>1238.35</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>1240</v>
-      </c>
-      <c r="K202" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7742,22 +7562,14 @@
         <v>1238.45</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>1240</v>
-      </c>
-      <c r="K203" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7785,22 +7597,14 @@
         <v>1238.75</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>1244</v>
-      </c>
-      <c r="K204" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7828,22 +7632,14 @@
         <v>1238.95</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>1244</v>
-      </c>
-      <c r="K205" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7871,22 +7667,14 @@
         <v>1239.25</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>1244</v>
-      </c>
-      <c r="K206" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7914,22 +7702,14 @@
         <v>1239.55</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>1244</v>
-      </c>
-      <c r="K207" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7957,22 +7737,14 @@
         <v>1240</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K208" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8000,22 +7772,14 @@
         <v>1240.45</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K209" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8043,22 +7807,14 @@
         <v>1240.9</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K210" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8086,22 +7842,14 @@
         <v>1241.35</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K211" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8135,14 +7883,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8176,14 +7918,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8217,14 +7953,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +7988,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8299,14 +8023,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8340,14 +8058,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8381,14 +8093,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8128,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8463,14 +8163,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8504,14 +8198,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8545,14 +8233,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8586,14 +8268,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +8303,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8668,14 +8338,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8709,14 +8373,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8750,14 +8408,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8791,14 +8443,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8832,14 +8478,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8873,14 +8513,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8914,14 +8548,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8955,14 +8583,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8996,14 +8618,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9037,14 +8653,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9078,14 +8688,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9119,14 +8723,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9160,14 +8758,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9201,14 +8793,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9242,14 +8828,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9283,14 +8863,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9324,14 +8898,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9365,14 +8933,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9406,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9447,14 +9003,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9488,14 +9038,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9529,14 +9073,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9570,14 +9108,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9611,14 +9143,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9652,14 +9178,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9693,14 +9213,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9734,14 +9248,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9775,14 +9283,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9816,14 +9318,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9857,14 +9353,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9898,14 +9388,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9939,14 +9423,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9980,14 +9458,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +9493,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10062,14 +9528,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10103,14 +9563,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10144,14 +9598,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10185,14 +9633,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10226,14 +9668,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10267,14 +9703,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10308,14 +9738,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10349,14 +9773,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10384,22 +9802,14 @@
         <v>1243.55</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>1237</v>
-      </c>
-      <c r="K267" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10427,22 +9837,14 @@
         <v>1243.55</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K268" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10470,22 +9872,14 @@
         <v>1243.55</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K269" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10519,14 +9913,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10560,14 +9948,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10601,14 +9983,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +10018,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10683,14 +10053,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10724,14 +10088,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10765,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10806,14 +10158,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10847,14 +10193,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10888,14 +10228,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10929,14 +10263,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10970,14 +10298,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11011,14 +10333,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11052,14 +10368,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11093,14 +10403,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11134,14 +10438,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11175,14 +10473,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11216,14 +10508,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11257,14 +10543,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11298,14 +10578,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11339,14 +10613,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11377,17 +10645,11 @@
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11421,14 +10683,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11462,14 +10718,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11503,14 +10753,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11541,19 +10785,13 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
-        <v>1.033772213247173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
